--- a/medicine/Enfance/Vladimir_Colin/Vladimir_Colin.xlsx
+++ b/medicine/Enfance/Vladimir_Colin/Vladimir_Colin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vladimir Colin, pseudonyme de Jean Colin, né le 1er mai 1921 à Bucarest et mort le 6 décembre 1991 (à 70 ans) à Bucarest, est un écrivain roumain.
-Il a écrit des articles, de la poésie, des contes pour enfants, des romans et des nouvelles de fantastique et de science-fiction[1].
+Il a écrit des articles, de la poésie, des contes pour enfants, des romans et des nouvelles de fantastique et de science-fiction.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Basme, 1953
 Poveştile celor trei mincinoşi, 1956
@@ -557,7 +571,9 @@
           <t>Éditions en français</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La Saga de Vam, 1988, bande dessinée de Igor Kordey, d'après l'œuvre originale de Vladimir Colin (Legendele țării lui Vam), texte français de Frank Reichert.
 Le Pentagramme, Marabout no 392, coll. Marabout Fantastique, 1972, traduction de Pentagrama par l'auteur avec la collaboration de Jean-Baptiste Baronian
